--- a/data_month/zb/价格指数/分行业中类工业生产者出厂价格指数(上年同月=100)(2014-2017)/化学原料和化学制品制造业工业生产者出厂价格指数(上年同月=100).xlsx
+++ b/data_month/zb/价格指数/分行业中类工业生产者出厂价格指数(上年同月=100)(2014-2017)/化学原料和化学制品制造业工业生产者出厂价格指数(上年同月=100).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -478,1489 +478,1489 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2014年10月</t>
+          <t>2014-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>98.7966</v>
+        <v>99.4395</v>
       </c>
       <c r="C2" t="n">
-        <v>99.69799999999999</v>
+        <v>100.5365</v>
       </c>
       <c r="D2" t="n">
-        <v>96.75579999999999</v>
+        <v>97.6204</v>
       </c>
       <c r="E2" t="n">
-        <v>97.8937</v>
+        <v>98.8259</v>
       </c>
       <c r="F2" t="n">
-        <v>99.2197</v>
+        <v>99.9573</v>
       </c>
       <c r="G2" t="n">
-        <v>102.7575</v>
+        <v>100.6755</v>
       </c>
       <c r="H2" t="n">
-        <v>98.57769999999999</v>
+        <v>99.0626</v>
       </c>
       <c r="I2" t="n">
-        <v>96.0788</v>
+        <v>90.86660000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2014年11月</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>98.23569999999999</v>
+        <v>99.5934</v>
       </c>
       <c r="C3" t="n">
-        <v>98.8546</v>
+        <v>100.7199</v>
       </c>
       <c r="D3" t="n">
-        <v>95.35899999999999</v>
+        <v>96.3219</v>
       </c>
       <c r="E3" t="n">
-        <v>95.0539</v>
+        <v>97.77160000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>99.2242</v>
+        <v>100.3006</v>
       </c>
       <c r="G3" t="n">
-        <v>101.7718</v>
+        <v>100.8662</v>
       </c>
       <c r="H3" t="n">
-        <v>98.5052</v>
+        <v>98.86969999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>95.84820000000001</v>
+        <v>90.6961</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2014年12月</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>97.28959999999999</v>
+        <v>99.5117</v>
       </c>
       <c r="C4" t="n">
-        <v>98.902</v>
+        <v>101.2628</v>
       </c>
       <c r="D4" t="n">
-        <v>92.8502</v>
+        <v>95.6041</v>
       </c>
       <c r="E4" t="n">
-        <v>90.5677</v>
+        <v>96.6957</v>
       </c>
       <c r="F4" t="n">
-        <v>99.2286</v>
+        <v>100.2434</v>
       </c>
       <c r="G4" t="n">
-        <v>101.347</v>
+        <v>101.4768</v>
       </c>
       <c r="H4" t="n">
-        <v>98.06270000000001</v>
+        <v>98.9072</v>
       </c>
       <c r="I4" t="n">
-        <v>95.72280000000001</v>
+        <v>90.087</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2014年1月</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>99.4395</v>
+        <v>99.6399</v>
       </c>
       <c r="C5" t="n">
-        <v>100.5365</v>
+        <v>101.7116</v>
       </c>
       <c r="D5" t="n">
-        <v>97.6204</v>
+        <v>96.89400000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>98.8259</v>
+        <v>97.81</v>
       </c>
       <c r="F5" t="n">
-        <v>99.9573</v>
+        <v>100.17</v>
       </c>
       <c r="G5" t="n">
-        <v>100.6755</v>
+        <v>102.0044</v>
       </c>
       <c r="H5" t="n">
-        <v>99.0626</v>
+        <v>98.88079999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>90.86660000000001</v>
+        <v>89.2664</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2014年2月</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>99.5934</v>
+        <v>99.94159999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>100.7199</v>
+        <v>101.4752</v>
       </c>
       <c r="D6" t="n">
-        <v>96.3219</v>
+        <v>97.47490000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>97.77160000000001</v>
+        <v>98.8038</v>
       </c>
       <c r="F6" t="n">
-        <v>100.3006</v>
+        <v>100.2039</v>
       </c>
       <c r="G6" t="n">
-        <v>100.8662</v>
+        <v>102.6821</v>
       </c>
       <c r="H6" t="n">
-        <v>98.86969999999999</v>
+        <v>99.0311</v>
       </c>
       <c r="I6" t="n">
-        <v>90.6961</v>
+        <v>89.6575</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2014年3月</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.5117</v>
+        <v>99.85720000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>101.2628</v>
+        <v>100.4547</v>
       </c>
       <c r="D7" t="n">
-        <v>95.6041</v>
+        <v>98.0592</v>
       </c>
       <c r="E7" t="n">
-        <v>96.6957</v>
+        <v>99.60290000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>100.2434</v>
+        <v>100.2203</v>
       </c>
       <c r="G7" t="n">
-        <v>101.4768</v>
+        <v>103.3037</v>
       </c>
       <c r="H7" t="n">
-        <v>98.9072</v>
+        <v>98.8848</v>
       </c>
       <c r="I7" t="n">
-        <v>90.087</v>
+        <v>90.2187</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014年4月</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>99.6399</v>
+        <v>100.3158</v>
       </c>
       <c r="C8" t="n">
-        <v>101.7116</v>
+        <v>100.4041</v>
       </c>
       <c r="D8" t="n">
-        <v>96.89400000000001</v>
+        <v>99.0162</v>
       </c>
       <c r="E8" t="n">
-        <v>97.81</v>
+        <v>101.0255</v>
       </c>
       <c r="F8" t="n">
-        <v>100.17</v>
+        <v>100.0016</v>
       </c>
       <c r="G8" t="n">
-        <v>102.0044</v>
+        <v>103.5389</v>
       </c>
       <c r="H8" t="n">
-        <v>98.88079999999999</v>
+        <v>98.5763</v>
       </c>
       <c r="I8" t="n">
-        <v>89.2664</v>
+        <v>91.7013</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2014年5月</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>99.94159999999999</v>
+        <v>99.8342</v>
       </c>
       <c r="C9" t="n">
-        <v>101.4752</v>
+        <v>100.3234</v>
       </c>
       <c r="D9" t="n">
-        <v>97.47490000000001</v>
+        <v>99.49379999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>98.8038</v>
+        <v>101.3433</v>
       </c>
       <c r="F9" t="n">
-        <v>100.2039</v>
+        <v>100.2628</v>
       </c>
       <c r="G9" t="n">
-        <v>102.6821</v>
+        <v>103.3813</v>
       </c>
       <c r="H9" t="n">
-        <v>99.0311</v>
+        <v>97.8201</v>
       </c>
       <c r="I9" t="n">
-        <v>89.6575</v>
+        <v>93.6065</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2014年6月</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.85720000000001</v>
+        <v>99.306</v>
       </c>
       <c r="C10" t="n">
-        <v>100.4547</v>
+        <v>100.263</v>
       </c>
       <c r="D10" t="n">
-        <v>98.0592</v>
+        <v>98.80549999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>99.60290000000001</v>
+        <v>100.1608</v>
       </c>
       <c r="F10" t="n">
-        <v>100.2203</v>
+        <v>100.0945</v>
       </c>
       <c r="G10" t="n">
-        <v>103.3037</v>
+        <v>103.0495</v>
       </c>
       <c r="H10" t="n">
-        <v>98.8848</v>
+        <v>98.2993</v>
       </c>
       <c r="I10" t="n">
-        <v>90.2187</v>
+        <v>95.5154</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2014年7月</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>100.3158</v>
+        <v>98.7966</v>
       </c>
       <c r="C11" t="n">
-        <v>100.4041</v>
+        <v>99.69799999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>99.0162</v>
+        <v>96.75579999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>101.0255</v>
+        <v>97.8937</v>
       </c>
       <c r="F11" t="n">
-        <v>100.0016</v>
+        <v>99.2197</v>
       </c>
       <c r="G11" t="n">
-        <v>103.5389</v>
+        <v>102.7575</v>
       </c>
       <c r="H11" t="n">
-        <v>98.5763</v>
+        <v>98.57769999999999</v>
       </c>
       <c r="I11" t="n">
-        <v>91.7013</v>
+        <v>96.0788</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2014年8月</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>99.8342</v>
+        <v>98.23569999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>100.3234</v>
+        <v>98.8546</v>
       </c>
       <c r="D12" t="n">
-        <v>99.49379999999999</v>
+        <v>95.35899999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>101.3433</v>
+        <v>95.0539</v>
       </c>
       <c r="F12" t="n">
-        <v>100.2628</v>
+        <v>99.2242</v>
       </c>
       <c r="G12" t="n">
-        <v>103.3813</v>
+        <v>101.7718</v>
       </c>
       <c r="H12" t="n">
-        <v>97.8201</v>
+        <v>98.5052</v>
       </c>
       <c r="I12" t="n">
-        <v>93.6065</v>
+        <v>95.84820000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2014年9月</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>99.306</v>
+        <v>97.28959999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>100.263</v>
+        <v>98.902</v>
       </c>
       <c r="D13" t="n">
-        <v>98.80549999999999</v>
+        <v>92.8502</v>
       </c>
       <c r="E13" t="n">
-        <v>100.1608</v>
+        <v>90.5677</v>
       </c>
       <c r="F13" t="n">
-        <v>100.0945</v>
+        <v>99.2286</v>
       </c>
       <c r="G13" t="n">
-        <v>103.0495</v>
+        <v>101.347</v>
       </c>
       <c r="H13" t="n">
-        <v>98.2993</v>
+        <v>98.06270000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>95.5154</v>
+        <v>95.72280000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2015年10月</t>
+          <t>2015-01</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.09999999999999</v>
+        <v>96.1234</v>
       </c>
       <c r="C14" t="n">
-        <v>95.40000000000001</v>
+        <v>98.3843</v>
       </c>
       <c r="D14" t="n">
-        <v>84.7</v>
+        <v>89.27500000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>86.40000000000001</v>
+        <v>87.7659</v>
       </c>
       <c r="F14" t="n">
-        <v>99.09999999999999</v>
+        <v>98.90349999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>96.7</v>
+        <v>100.5861</v>
       </c>
       <c r="H14" t="n">
-        <v>98.5</v>
+        <v>98.49630000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>100.7</v>
+        <v>95.60769999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2015年11月</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>92.9285</v>
+        <v>95.7777</v>
       </c>
       <c r="C15" t="n">
-        <v>96.40389999999999</v>
+        <v>98.27719999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>84.899</v>
+        <v>87.25790000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>87.6819</v>
+        <v>87.1583</v>
       </c>
       <c r="F15" t="n">
-        <v>99.101</v>
+        <v>98.71939999999999</v>
       </c>
       <c r="G15" t="n">
-        <v>97.0027</v>
+        <v>100.3273</v>
       </c>
       <c r="H15" t="n">
-        <v>99.06489999999999</v>
+        <v>97.7032</v>
       </c>
       <c r="I15" t="n">
-        <v>100.5284</v>
+        <v>95.63549999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2015年12月</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.0454</v>
+        <v>95.5348</v>
       </c>
       <c r="C16" t="n">
-        <v>95.9817</v>
+        <v>97.84269999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>86.10169999999999</v>
+        <v>88.3259</v>
       </c>
       <c r="E16" t="n">
-        <v>90.5176</v>
+        <v>89.38720000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>99.06870000000001</v>
+        <v>98.69799999999999</v>
       </c>
       <c r="G16" t="n">
-        <v>96.6904</v>
+        <v>99.75709999999999</v>
       </c>
       <c r="H16" t="n">
-        <v>99.55759999999999</v>
+        <v>98.3159</v>
       </c>
       <c r="I16" t="n">
-        <v>99.9276</v>
+        <v>96.5946</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2015年1月</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>96.1234</v>
+        <v>95.0784</v>
       </c>
       <c r="C17" t="n">
-        <v>98.3843</v>
+        <v>96.9513</v>
       </c>
       <c r="D17" t="n">
-        <v>89.27500000000001</v>
+        <v>89.88930000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>87.7659</v>
+        <v>90.7731</v>
       </c>
       <c r="F17" t="n">
-        <v>98.90349999999999</v>
+        <v>98.6328</v>
       </c>
       <c r="G17" t="n">
-        <v>100.5861</v>
+        <v>99.4987</v>
       </c>
       <c r="H17" t="n">
-        <v>98.49630000000001</v>
+        <v>98.36279999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>95.60769999999999</v>
+        <v>98.15730000000001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2015年2月</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>95.7777</v>
+        <v>94.93940000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>98.27719999999999</v>
+        <v>96.7805</v>
       </c>
       <c r="D18" t="n">
-        <v>87.25790000000001</v>
+        <v>91.8383</v>
       </c>
       <c r="E18" t="n">
-        <v>87.1583</v>
+        <v>91.8676</v>
       </c>
       <c r="F18" t="n">
-        <v>98.71939999999999</v>
+        <v>98.71259999999999</v>
       </c>
       <c r="G18" t="n">
-        <v>100.3273</v>
+        <v>98.8896</v>
       </c>
       <c r="H18" t="n">
-        <v>97.7032</v>
+        <v>98.10469999999999</v>
       </c>
       <c r="I18" t="n">
-        <v>95.63549999999999</v>
+        <v>99.65649999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2015年3月</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.5348</v>
+        <v>94.6568</v>
       </c>
       <c r="C19" t="n">
-        <v>97.84269999999999</v>
+        <v>96.71250000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>88.3259</v>
+        <v>91.7041</v>
       </c>
       <c r="E19" t="n">
-        <v>89.38720000000001</v>
+        <v>91.4961</v>
       </c>
       <c r="F19" t="n">
-        <v>98.69799999999999</v>
+        <v>98.7634</v>
       </c>
       <c r="G19" t="n">
-        <v>99.75709999999999</v>
+        <v>98.4722</v>
       </c>
       <c r="H19" t="n">
-        <v>98.3159</v>
+        <v>98.32769999999999</v>
       </c>
       <c r="I19" t="n">
-        <v>96.5946</v>
+        <v>102.3449</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2015年4月</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>95.0784</v>
+        <v>94.24809999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>96.9513</v>
+        <v>96.6688</v>
       </c>
       <c r="D20" t="n">
-        <v>89.88930000000001</v>
+        <v>89.57470000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>90.7731</v>
+        <v>90.1404</v>
       </c>
       <c r="F20" t="n">
-        <v>98.6328</v>
+        <v>98.8192</v>
       </c>
       <c r="G20" t="n">
-        <v>99.4987</v>
+        <v>98.0526</v>
       </c>
       <c r="H20" t="n">
-        <v>98.36279999999999</v>
+        <v>97.94289999999999</v>
       </c>
       <c r="I20" t="n">
-        <v>98.15730000000001</v>
+        <v>103.1864</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2015年5月</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>94.93940000000001</v>
+        <v>93.8344</v>
       </c>
       <c r="C21" t="n">
-        <v>96.7805</v>
+        <v>95.16379999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>91.8383</v>
+        <v>86.23999999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>91.8676</v>
+        <v>87.0921</v>
       </c>
       <c r="F21" t="n">
-        <v>98.71259999999999</v>
+        <v>98.5774</v>
       </c>
       <c r="G21" t="n">
-        <v>98.8896</v>
+        <v>97.39</v>
       </c>
       <c r="H21" t="n">
-        <v>98.10469999999999</v>
+        <v>99.1639</v>
       </c>
       <c r="I21" t="n">
-        <v>99.65649999999999</v>
+        <v>102.6164</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2015年6月</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>94.6568</v>
+        <v>93.3548</v>
       </c>
       <c r="C22" t="n">
-        <v>96.71250000000001</v>
+        <v>94.8497</v>
       </c>
       <c r="D22" t="n">
-        <v>91.7041</v>
+        <v>84.1788</v>
       </c>
       <c r="E22" t="n">
-        <v>91.4961</v>
+        <v>86.07599999999999</v>
       </c>
       <c r="F22" t="n">
-        <v>98.7634</v>
+        <v>98.5855</v>
       </c>
       <c r="G22" t="n">
-        <v>98.4722</v>
+        <v>96.8946</v>
       </c>
       <c r="H22" t="n">
-        <v>98.32769999999999</v>
+        <v>98.80329999999999</v>
       </c>
       <c r="I22" t="n">
-        <v>102.3449</v>
+        <v>101.6176</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2015年7月</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>94.24809999999999</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>96.6688</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>89.57470000000001</v>
+        <v>84.7</v>
       </c>
       <c r="E23" t="n">
-        <v>90.1404</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="F23" t="n">
-        <v>98.8192</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="G23" t="n">
-        <v>98.0526</v>
+        <v>96.7</v>
       </c>
       <c r="H23" t="n">
-        <v>97.94289999999999</v>
+        <v>98.5</v>
       </c>
       <c r="I23" t="n">
-        <v>103.1864</v>
+        <v>100.7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2015年8月</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>93.8344</v>
+        <v>92.9285</v>
       </c>
       <c r="C24" t="n">
-        <v>95.16379999999999</v>
+        <v>96.40389999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>86.23999999999999</v>
+        <v>84.899</v>
       </c>
       <c r="E24" t="n">
-        <v>87.0921</v>
+        <v>87.6819</v>
       </c>
       <c r="F24" t="n">
-        <v>98.5774</v>
+        <v>99.101</v>
       </c>
       <c r="G24" t="n">
-        <v>97.39</v>
+        <v>97.0027</v>
       </c>
       <c r="H24" t="n">
-        <v>99.1639</v>
+        <v>99.06489999999999</v>
       </c>
       <c r="I24" t="n">
-        <v>102.6164</v>
+        <v>100.5284</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2015年9月</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.3548</v>
+        <v>93.0454</v>
       </c>
       <c r="C25" t="n">
-        <v>94.8497</v>
+        <v>95.9817</v>
       </c>
       <c r="D25" t="n">
-        <v>84.1788</v>
+        <v>86.10169999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>86.07599999999999</v>
+        <v>90.5176</v>
       </c>
       <c r="F25" t="n">
-        <v>98.5855</v>
+        <v>99.06870000000001</v>
       </c>
       <c r="G25" t="n">
-        <v>96.8946</v>
+        <v>96.6904</v>
       </c>
       <c r="H25" t="n">
-        <v>98.80329999999999</v>
+        <v>99.55759999999999</v>
       </c>
       <c r="I25" t="n">
-        <v>101.6176</v>
+        <v>99.9276</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2016年10月</t>
+          <t>2016-01</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>98.7</v>
+        <v>93.61960000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>95.8</v>
+        <v>96.69750000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>102.9</v>
+        <v>90.0853</v>
       </c>
       <c r="E26" t="n">
-        <v>104.3</v>
+        <v>91.3813</v>
       </c>
       <c r="F26" t="n">
-        <v>100.4</v>
+        <v>99.2132</v>
       </c>
       <c r="G26" t="n">
-        <v>99.90000000000001</v>
+        <v>97.17310000000001</v>
       </c>
       <c r="H26" t="n">
-        <v>100.3</v>
+        <v>100.4824</v>
       </c>
       <c r="I26" t="n">
-        <v>91.3</v>
+        <v>98.4297</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2016年11月</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>100.9</v>
+        <v>94.0089</v>
       </c>
       <c r="C27" t="n">
-        <v>97.09999999999999</v>
+        <v>95.63039999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>107.7</v>
+        <v>91.6675</v>
       </c>
       <c r="E27" t="n">
-        <v>108.3</v>
+        <v>91.9415</v>
       </c>
       <c r="F27" t="n">
-        <v>100.5</v>
+        <v>99.0292</v>
       </c>
       <c r="G27" t="n">
-        <v>100.8</v>
+        <v>97.0843</v>
       </c>
       <c r="H27" t="n">
-        <v>99.5</v>
+        <v>100.6139</v>
       </c>
       <c r="I27" t="n">
-        <v>93.09999999999999</v>
+        <v>97.4015</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2016年12月</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>103.1</v>
+        <v>94.62569999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>98.59999999999999</v>
+        <v>95.5324</v>
       </c>
       <c r="D28" t="n">
-        <v>112.7</v>
+        <v>92.9973</v>
       </c>
       <c r="E28" t="n">
-        <v>114.4</v>
+        <v>92.5188</v>
       </c>
       <c r="F28" t="n">
-        <v>100.7</v>
+        <v>99.0254</v>
       </c>
       <c r="G28" t="n">
-        <v>101.6</v>
+        <v>97.206</v>
       </c>
       <c r="H28" t="n">
-        <v>99.59999999999999</v>
+        <v>100.5082</v>
       </c>
       <c r="I28" t="n">
-        <v>95.59999999999999</v>
+        <v>96.2283</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2016年1月</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.61960000000001</v>
+        <v>95.32729999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>96.69750000000001</v>
+        <v>95.29470000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>90.0853</v>
+        <v>93.399</v>
       </c>
       <c r="E29" t="n">
-        <v>91.3813</v>
+        <v>93.03489999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>99.2132</v>
+        <v>99.2668</v>
       </c>
       <c r="G29" t="n">
-        <v>97.17310000000001</v>
+        <v>97.3479</v>
       </c>
       <c r="H29" t="n">
-        <v>100.4824</v>
+        <v>100.4936</v>
       </c>
       <c r="I29" t="n">
-        <v>98.4297</v>
+        <v>96.352</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2016年2月</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>94.0089</v>
+        <v>95.8</v>
       </c>
       <c r="C30" t="n">
-        <v>95.63039999999999</v>
+        <v>95</v>
       </c>
       <c r="D30" t="n">
-        <v>91.6675</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>91.9415</v>
+        <v>92.5</v>
       </c>
       <c r="F30" t="n">
-        <v>99.0292</v>
+        <v>99.3</v>
       </c>
       <c r="G30" t="n">
-        <v>97.0843</v>
+        <v>97.3</v>
       </c>
       <c r="H30" t="n">
-        <v>100.6139</v>
+        <v>100.2</v>
       </c>
       <c r="I30" t="n">
-        <v>97.4015</v>
+        <v>95.8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2016年3月</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>94.62569999999999</v>
+        <v>96.7</v>
       </c>
       <c r="C31" t="n">
-        <v>95.5324</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>92.9973</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="E31" t="n">
-        <v>92.5188</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="F31" t="n">
-        <v>99.0254</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="G31" t="n">
-        <v>97.206</v>
+        <v>97.7</v>
       </c>
       <c r="H31" t="n">
-        <v>100.5082</v>
+        <v>100.2</v>
       </c>
       <c r="I31" t="n">
-        <v>96.2283</v>
+        <v>93.90000000000001</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2016年4月</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>95.32729999999999</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>95.29470000000001</v>
+        <v>95.2</v>
       </c>
       <c r="D32" t="n">
-        <v>93.399</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="E32" t="n">
-        <v>93.03489999999999</v>
+        <v>93.7</v>
       </c>
       <c r="F32" t="n">
-        <v>99.2668</v>
+        <v>99.7</v>
       </c>
       <c r="G32" t="n">
-        <v>97.3479</v>
+        <v>97.7</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4936</v>
+        <v>100.3</v>
       </c>
       <c r="I32" t="n">
-        <v>96.352</v>
+        <v>92.2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2016年5月</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>95.8</v>
+        <v>97.8</v>
       </c>
       <c r="C33" t="n">
-        <v>95</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>92.09999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="E33" t="n">
-        <v>92.5</v>
+        <v>97.2</v>
       </c>
       <c r="F33" t="n">
-        <v>99.3</v>
+        <v>99.8</v>
       </c>
       <c r="G33" t="n">
-        <v>97.3</v>
+        <v>98.3</v>
       </c>
       <c r="H33" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="I33" t="n">
-        <v>95.8</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2016年6月</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>96.7</v>
+        <v>98.3</v>
       </c>
       <c r="C34" t="n">
-        <v>95.09999999999999</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>92.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="E34" t="n">
-        <v>92.59999999999999</v>
+        <v>100.5</v>
       </c>
       <c r="F34" t="n">
-        <v>99.40000000000001</v>
+        <v>100.3</v>
       </c>
       <c r="G34" t="n">
-        <v>97.7</v>
+        <v>99</v>
       </c>
       <c r="H34" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="I34" t="n">
-        <v>93.90000000000001</v>
+        <v>90.7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2016年7月</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.59999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="C35" t="n">
-        <v>95.2</v>
+        <v>95.8</v>
       </c>
       <c r="D35" t="n">
-        <v>94.09999999999999</v>
+        <v>102.9</v>
       </c>
       <c r="E35" t="n">
-        <v>93.7</v>
+        <v>104.3</v>
       </c>
       <c r="F35" t="n">
-        <v>99.7</v>
+        <v>100.4</v>
       </c>
       <c r="G35" t="n">
-        <v>97.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="H35" t="n">
         <v>100.3</v>
       </c>
       <c r="I35" t="n">
-        <v>92.2</v>
+        <v>91.3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2016年8月</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>97.8</v>
+        <v>100.9</v>
       </c>
       <c r="C36" t="n">
-        <v>95.40000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>97.2</v>
+        <v>107.7</v>
       </c>
       <c r="E36" t="n">
-        <v>97.2</v>
+        <v>108.3</v>
       </c>
       <c r="F36" t="n">
-        <v>99.8</v>
+        <v>100.5</v>
       </c>
       <c r="G36" t="n">
-        <v>98.3</v>
+        <v>100.8</v>
       </c>
       <c r="H36" t="n">
-        <v>100.3</v>
+        <v>99.5</v>
       </c>
       <c r="I36" t="n">
-        <v>91</v>
+        <v>93.09999999999999</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2016年9月</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>98.3</v>
+        <v>103.1</v>
       </c>
       <c r="C37" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="D37" t="n">
+        <v>112.7</v>
+      </c>
+      <c r="E37" t="n">
+        <v>114.4</v>
+      </c>
+      <c r="F37" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="G37" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="H37" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="I37" t="n">
         <v>95.59999999999999</v>
-      </c>
-      <c r="D37" t="n">
-        <v>100</v>
-      </c>
-      <c r="E37" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="F37" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="G37" t="n">
-        <v>99</v>
-      </c>
-      <c r="H37" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="I37" t="n">
-        <v>90.7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2017年10月</t>
+          <t>2017-01</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>106.7</v>
+        <v>104.1</v>
       </c>
       <c r="C38" t="n">
-        <v>111.1</v>
+        <v>99.7</v>
       </c>
       <c r="D38" t="n">
-        <v>115.3</v>
+        <v>116.9</v>
       </c>
       <c r="E38" t="n">
-        <v>115.9</v>
+        <v>118.5</v>
       </c>
       <c r="F38" t="n">
-        <v>102.8</v>
+        <v>101.4</v>
       </c>
       <c r="G38" t="n">
-        <v>105</v>
+        <v>102.7</v>
       </c>
       <c r="H38" t="n">
-        <v>101.7</v>
+        <v>99.5</v>
       </c>
       <c r="I38" t="n">
-        <v>107.5</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>105.8</v>
+        <v>106</v>
       </c>
       <c r="C39" t="n">
-        <v>111.6</v>
+        <v>101.4</v>
       </c>
       <c r="D39" t="n">
-        <v>112.7</v>
+        <v>121.4</v>
       </c>
       <c r="E39" t="n">
-        <v>115.7</v>
+        <v>122.5</v>
       </c>
       <c r="F39" t="n">
-        <v>102.9</v>
+        <v>102.5</v>
       </c>
       <c r="G39" t="n">
-        <v>104.8</v>
+        <v>103.4</v>
       </c>
       <c r="H39" t="n">
-        <v>102.2</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="I39" t="n">
-        <v>107.8</v>
+        <v>101.3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>105</v>
+        <v>106.7</v>
       </c>
       <c r="C40" t="n">
-        <v>112.8</v>
+        <v>101.9</v>
       </c>
       <c r="D40" t="n">
-        <v>110.7</v>
+        <v>118.7</v>
       </c>
       <c r="E40" t="n">
-        <v>113.5</v>
+        <v>120.7</v>
       </c>
       <c r="F40" t="n">
-        <v>103.1</v>
+        <v>102.8</v>
       </c>
       <c r="G40" t="n">
-        <v>104.5</v>
+        <v>104.2</v>
       </c>
       <c r="H40" t="n">
-        <v>102.4</v>
+        <v>99.7</v>
       </c>
       <c r="I40" t="n">
-        <v>107.8</v>
+        <v>102.8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2017年1月</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>104.1</v>
+        <v>105.4</v>
       </c>
       <c r="C41" t="n">
-        <v>99.7</v>
+        <v>103.2</v>
       </c>
       <c r="D41" t="n">
-        <v>116.9</v>
+        <v>113.4</v>
       </c>
       <c r="E41" t="n">
-        <v>118.5</v>
+        <v>116.4</v>
       </c>
       <c r="F41" t="n">
-        <v>101.4</v>
+        <v>103.1</v>
       </c>
       <c r="G41" t="n">
-        <v>102.7</v>
+        <v>104.4</v>
       </c>
       <c r="H41" t="n">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="I41" t="n">
-        <v>99</v>
+        <v>101.9</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2017年2月</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>106</v>
+        <v>104.3</v>
       </c>
       <c r="C42" t="n">
-        <v>101.4</v>
+        <v>104.3</v>
       </c>
       <c r="D42" t="n">
-        <v>121.4</v>
+        <v>111</v>
       </c>
       <c r="E42" t="n">
-        <v>122.5</v>
+        <v>113.6</v>
       </c>
       <c r="F42" t="n">
-        <v>102.5</v>
+        <v>103</v>
       </c>
       <c r="G42" t="n">
-        <v>103.4</v>
+        <v>104.9</v>
       </c>
       <c r="H42" t="n">
-        <v>99.40000000000001</v>
+        <v>100.2</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3</v>
+        <v>101.6</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2017年3月</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>106.7</v>
+        <v>103.1</v>
       </c>
       <c r="C43" t="n">
-        <v>101.9</v>
+        <v>103.9</v>
       </c>
       <c r="D43" t="n">
-        <v>118.7</v>
+        <v>111.1</v>
       </c>
       <c r="E43" t="n">
-        <v>120.7</v>
+        <v>113.8</v>
       </c>
       <c r="F43" t="n">
         <v>102.8</v>
       </c>
       <c r="G43" t="n">
-        <v>104.2</v>
+        <v>104.8</v>
       </c>
       <c r="H43" t="n">
-        <v>99.7</v>
+        <v>100.5</v>
       </c>
       <c r="I43" t="n">
-        <v>102.8</v>
+        <v>102.6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2017年4月</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>105.4</v>
+        <v>102.6</v>
       </c>
       <c r="C44" t="n">
-        <v>103.2</v>
+        <v>104.6</v>
       </c>
       <c r="D44" t="n">
-        <v>113.4</v>
+        <v>111.3</v>
       </c>
       <c r="E44" t="n">
-        <v>116.4</v>
+        <v>113.5</v>
       </c>
       <c r="F44" t="n">
-        <v>103.1</v>
+        <v>102.9</v>
       </c>
       <c r="G44" t="n">
-        <v>104.4</v>
+        <v>105</v>
       </c>
       <c r="H44" t="n">
-        <v>100</v>
+        <v>100.6</v>
       </c>
       <c r="I44" t="n">
-        <v>101.9</v>
+        <v>104.1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2017年5月</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>104.3</v>
+        <v>103.4</v>
       </c>
       <c r="C45" t="n">
-        <v>104.3</v>
+        <v>105.7</v>
       </c>
       <c r="D45" t="n">
-        <v>111</v>
+        <v>112.4</v>
       </c>
       <c r="E45" t="n">
-        <v>113.6</v>
+        <v>114.3</v>
       </c>
       <c r="F45" t="n">
-        <v>103</v>
+        <v>102.8</v>
       </c>
       <c r="G45" t="n">
-        <v>104.9</v>
+        <v>105</v>
       </c>
       <c r="H45" t="n">
-        <v>100.2</v>
+        <v>100.6</v>
       </c>
       <c r="I45" t="n">
-        <v>101.6</v>
+        <v>105.2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2017年6月</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>103.1</v>
+        <v>104.5</v>
       </c>
       <c r="C46" t="n">
-        <v>103.9</v>
+        <v>107.9</v>
       </c>
       <c r="D46" t="n">
-        <v>111.1</v>
+        <v>115.2</v>
       </c>
       <c r="E46" t="n">
-        <v>113.8</v>
+        <v>116.2</v>
       </c>
       <c r="F46" t="n">
-        <v>102.8</v>
+        <v>102.6</v>
       </c>
       <c r="G46" t="n">
-        <v>104.8</v>
+        <v>105.4</v>
       </c>
       <c r="H46" t="n">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="I46" t="n">
-        <v>102.6</v>
+        <v>106.1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2017年7月</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>102.6</v>
+        <v>106.7</v>
       </c>
       <c r="C47" t="n">
-        <v>104.6</v>
+        <v>111.1</v>
       </c>
       <c r="D47" t="n">
-        <v>111.3</v>
+        <v>115.3</v>
       </c>
       <c r="E47" t="n">
-        <v>113.5</v>
+        <v>115.9</v>
       </c>
       <c r="F47" t="n">
-        <v>102.9</v>
+        <v>102.8</v>
       </c>
       <c r="G47" t="n">
         <v>105</v>
       </c>
       <c r="H47" t="n">
-        <v>100.6</v>
+        <v>101.7</v>
       </c>
       <c r="I47" t="n">
-        <v>104.1</v>
+        <v>107.5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2017年8月</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>103.4</v>
+        <v>105.8</v>
       </c>
       <c r="C48" t="n">
-        <v>105.7</v>
+        <v>111.6</v>
       </c>
       <c r="D48" t="n">
-        <v>112.4</v>
+        <v>112.7</v>
       </c>
       <c r="E48" t="n">
-        <v>114.3</v>
+        <v>115.7</v>
       </c>
       <c r="F48" t="n">
-        <v>102.8</v>
+        <v>102.9</v>
       </c>
       <c r="G48" t="n">
-        <v>105</v>
+        <v>104.8</v>
       </c>
       <c r="H48" t="n">
-        <v>100.6</v>
+        <v>102.2</v>
       </c>
       <c r="I48" t="n">
-        <v>105.2</v>
+        <v>107.8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2017年9月</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B49" t="n">
+        <v>105</v>
+      </c>
+      <c r="C49" t="n">
+        <v>112.8</v>
+      </c>
+      <c r="D49" t="n">
+        <v>110.7</v>
+      </c>
+      <c r="E49" t="n">
+        <v>113.5</v>
+      </c>
+      <c r="F49" t="n">
+        <v>103.1</v>
+      </c>
+      <c r="G49" t="n">
         <v>104.5</v>
       </c>
-      <c r="C49" t="n">
-        <v>107.9</v>
-      </c>
-      <c r="D49" t="n">
-        <v>115.2</v>
-      </c>
-      <c r="E49" t="n">
-        <v>116.2</v>
-      </c>
-      <c r="F49" t="n">
-        <v>102.6</v>
-      </c>
-      <c r="G49" t="n">
-        <v>105.4</v>
-      </c>
       <c r="H49" t="n">
-        <v>100.6</v>
+        <v>102.4</v>
       </c>
       <c r="I49" t="n">
-        <v>106.1</v>
+        <v>107.8</v>
       </c>
     </row>
   </sheetData>

--- a/data_month/zb/价格指数/分行业中类工业生产者出厂价格指数(上年同月=100)(2014-2017)/化学原料和化学制品制造业工业生产者出厂价格指数(上年同月=100).xlsx
+++ b/data_month/zb/价格指数/分行业中类工业生产者出厂价格指数(上年同月=100)(2014-2017)/化学原料和化学制品制造业工业生产者出厂价格指数(上年同月=100).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -478,1489 +478,1489 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2014-01</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99.4395</v>
+        <v>98.7966</v>
       </c>
       <c r="C2" t="n">
-        <v>100.5365</v>
+        <v>99.69799999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>97.6204</v>
+        <v>96.75579999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>98.8259</v>
+        <v>97.8937</v>
       </c>
       <c r="F2" t="n">
-        <v>99.9573</v>
+        <v>99.2197</v>
       </c>
       <c r="G2" t="n">
-        <v>100.6755</v>
+        <v>102.7575</v>
       </c>
       <c r="H2" t="n">
-        <v>99.0626</v>
+        <v>98.57769999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>90.86660000000001</v>
+        <v>96.0788</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2014-02</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99.5934</v>
+        <v>98.23569999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>100.7199</v>
+        <v>98.8546</v>
       </c>
       <c r="D3" t="n">
-        <v>96.3219</v>
+        <v>95.35899999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>97.77160000000001</v>
+        <v>95.0539</v>
       </c>
       <c r="F3" t="n">
-        <v>100.3006</v>
+        <v>99.2242</v>
       </c>
       <c r="G3" t="n">
-        <v>100.8662</v>
+        <v>101.7718</v>
       </c>
       <c r="H3" t="n">
-        <v>98.86969999999999</v>
+        <v>98.5052</v>
       </c>
       <c r="I3" t="n">
-        <v>90.6961</v>
+        <v>95.84820000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2014-03</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.5117</v>
+        <v>97.28959999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>101.2628</v>
+        <v>98.902</v>
       </c>
       <c r="D4" t="n">
-        <v>95.6041</v>
+        <v>92.8502</v>
       </c>
       <c r="E4" t="n">
-        <v>96.6957</v>
+        <v>90.5677</v>
       </c>
       <c r="F4" t="n">
-        <v>100.2434</v>
+        <v>99.2286</v>
       </c>
       <c r="G4" t="n">
-        <v>101.4768</v>
+        <v>101.347</v>
       </c>
       <c r="H4" t="n">
-        <v>98.9072</v>
+        <v>98.06270000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>90.087</v>
+        <v>95.72280000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2014-04</t>
+          <t>2014-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>99.6399</v>
+        <v>99.4395</v>
       </c>
       <c r="C5" t="n">
-        <v>101.7116</v>
+        <v>100.5365</v>
       </c>
       <c r="D5" t="n">
-        <v>96.89400000000001</v>
+        <v>97.6204</v>
       </c>
       <c r="E5" t="n">
-        <v>97.81</v>
+        <v>98.8259</v>
       </c>
       <c r="F5" t="n">
-        <v>100.17</v>
+        <v>99.9573</v>
       </c>
       <c r="G5" t="n">
-        <v>102.0044</v>
+        <v>100.6755</v>
       </c>
       <c r="H5" t="n">
-        <v>98.88079999999999</v>
+        <v>99.0626</v>
       </c>
       <c r="I5" t="n">
-        <v>89.2664</v>
+        <v>90.86660000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2014-05</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>99.94159999999999</v>
+        <v>99.5934</v>
       </c>
       <c r="C6" t="n">
-        <v>101.4752</v>
+        <v>100.7199</v>
       </c>
       <c r="D6" t="n">
-        <v>97.47490000000001</v>
+        <v>96.3219</v>
       </c>
       <c r="E6" t="n">
-        <v>98.8038</v>
+        <v>97.77160000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>100.2039</v>
+        <v>100.3006</v>
       </c>
       <c r="G6" t="n">
-        <v>102.6821</v>
+        <v>100.8662</v>
       </c>
       <c r="H6" t="n">
-        <v>99.0311</v>
+        <v>98.86969999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>89.6575</v>
+        <v>90.6961</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2014-06</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.85720000000001</v>
+        <v>99.5117</v>
       </c>
       <c r="C7" t="n">
-        <v>100.4547</v>
+        <v>101.2628</v>
       </c>
       <c r="D7" t="n">
-        <v>98.0592</v>
+        <v>95.6041</v>
       </c>
       <c r="E7" t="n">
-        <v>99.60290000000001</v>
+        <v>96.6957</v>
       </c>
       <c r="F7" t="n">
-        <v>100.2203</v>
+        <v>100.2434</v>
       </c>
       <c r="G7" t="n">
-        <v>103.3037</v>
+        <v>101.4768</v>
       </c>
       <c r="H7" t="n">
-        <v>98.8848</v>
+        <v>98.9072</v>
       </c>
       <c r="I7" t="n">
-        <v>90.2187</v>
+        <v>90.087</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014-07</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>100.3158</v>
+        <v>99.6399</v>
       </c>
       <c r="C8" t="n">
-        <v>100.4041</v>
+        <v>101.7116</v>
       </c>
       <c r="D8" t="n">
-        <v>99.0162</v>
+        <v>96.89400000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>101.0255</v>
+        <v>97.81</v>
       </c>
       <c r="F8" t="n">
-        <v>100.0016</v>
+        <v>100.17</v>
       </c>
       <c r="G8" t="n">
-        <v>103.5389</v>
+        <v>102.0044</v>
       </c>
       <c r="H8" t="n">
-        <v>98.5763</v>
+        <v>98.88079999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>91.7013</v>
+        <v>89.2664</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2014-08</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>99.8342</v>
+        <v>99.94159999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>100.3234</v>
+        <v>101.4752</v>
       </c>
       <c r="D9" t="n">
-        <v>99.49379999999999</v>
+        <v>97.47490000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>101.3433</v>
+        <v>98.8038</v>
       </c>
       <c r="F9" t="n">
-        <v>100.2628</v>
+        <v>100.2039</v>
       </c>
       <c r="G9" t="n">
-        <v>103.3813</v>
+        <v>102.6821</v>
       </c>
       <c r="H9" t="n">
-        <v>97.8201</v>
+        <v>99.0311</v>
       </c>
       <c r="I9" t="n">
-        <v>93.6065</v>
+        <v>89.6575</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2014-09</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.306</v>
+        <v>99.85720000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>100.263</v>
+        <v>100.4547</v>
       </c>
       <c r="D10" t="n">
-        <v>98.80549999999999</v>
+        <v>98.0592</v>
       </c>
       <c r="E10" t="n">
-        <v>100.1608</v>
+        <v>99.60290000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>100.0945</v>
+        <v>100.2203</v>
       </c>
       <c r="G10" t="n">
-        <v>103.0495</v>
+        <v>103.3037</v>
       </c>
       <c r="H10" t="n">
-        <v>98.2993</v>
+        <v>98.8848</v>
       </c>
       <c r="I10" t="n">
-        <v>95.5154</v>
+        <v>90.2187</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2014-10</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>98.7966</v>
+        <v>100.3158</v>
       </c>
       <c r="C11" t="n">
-        <v>99.69799999999999</v>
+        <v>100.4041</v>
       </c>
       <c r="D11" t="n">
-        <v>96.75579999999999</v>
+        <v>99.0162</v>
       </c>
       <c r="E11" t="n">
-        <v>97.8937</v>
+        <v>101.0255</v>
       </c>
       <c r="F11" t="n">
-        <v>99.2197</v>
+        <v>100.0016</v>
       </c>
       <c r="G11" t="n">
-        <v>102.7575</v>
+        <v>103.5389</v>
       </c>
       <c r="H11" t="n">
-        <v>98.57769999999999</v>
+        <v>98.5763</v>
       </c>
       <c r="I11" t="n">
-        <v>96.0788</v>
+        <v>91.7013</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2014-11</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>98.23569999999999</v>
+        <v>99.8342</v>
       </c>
       <c r="C12" t="n">
-        <v>98.8546</v>
+        <v>100.3234</v>
       </c>
       <c r="D12" t="n">
-        <v>95.35899999999999</v>
+        <v>99.49379999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>95.0539</v>
+        <v>101.3433</v>
       </c>
       <c r="F12" t="n">
-        <v>99.2242</v>
+        <v>100.2628</v>
       </c>
       <c r="G12" t="n">
-        <v>101.7718</v>
+        <v>103.3813</v>
       </c>
       <c r="H12" t="n">
-        <v>98.5052</v>
+        <v>97.8201</v>
       </c>
       <c r="I12" t="n">
-        <v>95.84820000000001</v>
+        <v>93.6065</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2014-12</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.28959999999999</v>
+        <v>99.306</v>
       </c>
       <c r="C13" t="n">
-        <v>98.902</v>
+        <v>100.263</v>
       </c>
       <c r="D13" t="n">
-        <v>92.8502</v>
+        <v>98.80549999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>90.5677</v>
+        <v>100.1608</v>
       </c>
       <c r="F13" t="n">
-        <v>99.2286</v>
+        <v>100.0945</v>
       </c>
       <c r="G13" t="n">
-        <v>101.347</v>
+        <v>103.0495</v>
       </c>
       <c r="H13" t="n">
-        <v>98.06270000000001</v>
+        <v>98.2993</v>
       </c>
       <c r="I13" t="n">
-        <v>95.72280000000001</v>
+        <v>95.5154</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2015-01</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>96.1234</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>98.3843</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>89.27500000000001</v>
+        <v>84.7</v>
       </c>
       <c r="E14" t="n">
-        <v>87.7659</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>98.90349999999999</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>100.5861</v>
+        <v>96.7</v>
       </c>
       <c r="H14" t="n">
-        <v>98.49630000000001</v>
+        <v>98.5</v>
       </c>
       <c r="I14" t="n">
-        <v>95.60769999999999</v>
+        <v>100.7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2015-02</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>95.7777</v>
+        <v>92.9285</v>
       </c>
       <c r="C15" t="n">
-        <v>98.27719999999999</v>
+        <v>96.40389999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>87.25790000000001</v>
+        <v>84.899</v>
       </c>
       <c r="E15" t="n">
-        <v>87.1583</v>
+        <v>87.6819</v>
       </c>
       <c r="F15" t="n">
-        <v>98.71939999999999</v>
+        <v>99.101</v>
       </c>
       <c r="G15" t="n">
-        <v>100.3273</v>
+        <v>97.0027</v>
       </c>
       <c r="H15" t="n">
-        <v>97.7032</v>
+        <v>99.06489999999999</v>
       </c>
       <c r="I15" t="n">
-        <v>95.63549999999999</v>
+        <v>100.5284</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2015-03</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.5348</v>
+        <v>93.0454</v>
       </c>
       <c r="C16" t="n">
-        <v>97.84269999999999</v>
+        <v>95.9817</v>
       </c>
       <c r="D16" t="n">
-        <v>88.3259</v>
+        <v>86.10169999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>89.38720000000001</v>
+        <v>90.5176</v>
       </c>
       <c r="F16" t="n">
-        <v>98.69799999999999</v>
+        <v>99.06870000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>99.75709999999999</v>
+        <v>96.6904</v>
       </c>
       <c r="H16" t="n">
-        <v>98.3159</v>
+        <v>99.55759999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>96.5946</v>
+        <v>99.9276</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2015-04</t>
+          <t>2015-01</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>95.0784</v>
+        <v>96.1234</v>
       </c>
       <c r="C17" t="n">
-        <v>96.9513</v>
+        <v>98.3843</v>
       </c>
       <c r="D17" t="n">
-        <v>89.88930000000001</v>
+        <v>89.27500000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>90.7731</v>
+        <v>87.7659</v>
       </c>
       <c r="F17" t="n">
-        <v>98.6328</v>
+        <v>98.90349999999999</v>
       </c>
       <c r="G17" t="n">
-        <v>99.4987</v>
+        <v>100.5861</v>
       </c>
       <c r="H17" t="n">
-        <v>98.36279999999999</v>
+        <v>98.49630000000001</v>
       </c>
       <c r="I17" t="n">
-        <v>98.15730000000001</v>
+        <v>95.60769999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2015-05</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>94.93940000000001</v>
+        <v>95.7777</v>
       </c>
       <c r="C18" t="n">
-        <v>96.7805</v>
+        <v>98.27719999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>91.8383</v>
+        <v>87.25790000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>91.8676</v>
+        <v>87.1583</v>
       </c>
       <c r="F18" t="n">
-        <v>98.71259999999999</v>
+        <v>98.71939999999999</v>
       </c>
       <c r="G18" t="n">
-        <v>98.8896</v>
+        <v>100.3273</v>
       </c>
       <c r="H18" t="n">
-        <v>98.10469999999999</v>
+        <v>97.7032</v>
       </c>
       <c r="I18" t="n">
-        <v>99.65649999999999</v>
+        <v>95.63549999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2015-06</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>94.6568</v>
+        <v>95.5348</v>
       </c>
       <c r="C19" t="n">
-        <v>96.71250000000001</v>
+        <v>97.84269999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>91.7041</v>
+        <v>88.3259</v>
       </c>
       <c r="E19" t="n">
-        <v>91.4961</v>
+        <v>89.38720000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>98.7634</v>
+        <v>98.69799999999999</v>
       </c>
       <c r="G19" t="n">
-        <v>98.4722</v>
+        <v>99.75709999999999</v>
       </c>
       <c r="H19" t="n">
-        <v>98.32769999999999</v>
+        <v>98.3159</v>
       </c>
       <c r="I19" t="n">
-        <v>102.3449</v>
+        <v>96.5946</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2015-07</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>94.24809999999999</v>
+        <v>95.0784</v>
       </c>
       <c r="C20" t="n">
-        <v>96.6688</v>
+        <v>96.9513</v>
       </c>
       <c r="D20" t="n">
-        <v>89.57470000000001</v>
+        <v>89.88930000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>90.1404</v>
+        <v>90.7731</v>
       </c>
       <c r="F20" t="n">
-        <v>98.8192</v>
+        <v>98.6328</v>
       </c>
       <c r="G20" t="n">
-        <v>98.0526</v>
+        <v>99.4987</v>
       </c>
       <c r="H20" t="n">
-        <v>97.94289999999999</v>
+        <v>98.36279999999999</v>
       </c>
       <c r="I20" t="n">
-        <v>103.1864</v>
+        <v>98.15730000000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2015-08</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>93.8344</v>
+        <v>94.93940000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>95.16379999999999</v>
+        <v>96.7805</v>
       </c>
       <c r="D21" t="n">
-        <v>86.23999999999999</v>
+        <v>91.8383</v>
       </c>
       <c r="E21" t="n">
-        <v>87.0921</v>
+        <v>91.8676</v>
       </c>
       <c r="F21" t="n">
-        <v>98.5774</v>
+        <v>98.71259999999999</v>
       </c>
       <c r="G21" t="n">
-        <v>97.39</v>
+        <v>98.8896</v>
       </c>
       <c r="H21" t="n">
-        <v>99.1639</v>
+        <v>98.10469999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>102.6164</v>
+        <v>99.65649999999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2015-09</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>93.3548</v>
+        <v>94.6568</v>
       </c>
       <c r="C22" t="n">
-        <v>94.8497</v>
+        <v>96.71250000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>84.1788</v>
+        <v>91.7041</v>
       </c>
       <c r="E22" t="n">
-        <v>86.07599999999999</v>
+        <v>91.4961</v>
       </c>
       <c r="F22" t="n">
-        <v>98.5855</v>
+        <v>98.7634</v>
       </c>
       <c r="G22" t="n">
-        <v>96.8946</v>
+        <v>98.4722</v>
       </c>
       <c r="H22" t="n">
-        <v>98.80329999999999</v>
+        <v>98.32769999999999</v>
       </c>
       <c r="I22" t="n">
-        <v>101.6176</v>
+        <v>102.3449</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2015-10</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>93.09999999999999</v>
+        <v>94.24809999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>95.40000000000001</v>
+        <v>96.6688</v>
       </c>
       <c r="D23" t="n">
-        <v>84.7</v>
+        <v>89.57470000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>86.40000000000001</v>
+        <v>90.1404</v>
       </c>
       <c r="F23" t="n">
-        <v>99.09999999999999</v>
+        <v>98.8192</v>
       </c>
       <c r="G23" t="n">
-        <v>96.7</v>
+        <v>98.0526</v>
       </c>
       <c r="H23" t="n">
-        <v>98.5</v>
+        <v>97.94289999999999</v>
       </c>
       <c r="I23" t="n">
-        <v>100.7</v>
+        <v>103.1864</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2015-11</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>92.9285</v>
+        <v>93.8344</v>
       </c>
       <c r="C24" t="n">
-        <v>96.40389999999999</v>
+        <v>95.16379999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>84.899</v>
+        <v>86.23999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>87.6819</v>
+        <v>87.0921</v>
       </c>
       <c r="F24" t="n">
-        <v>99.101</v>
+        <v>98.5774</v>
       </c>
       <c r="G24" t="n">
-        <v>97.0027</v>
+        <v>97.39</v>
       </c>
       <c r="H24" t="n">
-        <v>99.06489999999999</v>
+        <v>99.1639</v>
       </c>
       <c r="I24" t="n">
-        <v>100.5284</v>
+        <v>102.6164</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2015-12</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.0454</v>
+        <v>93.3548</v>
       </c>
       <c r="C25" t="n">
-        <v>95.9817</v>
+        <v>94.8497</v>
       </c>
       <c r="D25" t="n">
-        <v>86.10169999999999</v>
+        <v>84.1788</v>
       </c>
       <c r="E25" t="n">
-        <v>90.5176</v>
+        <v>86.07599999999999</v>
       </c>
       <c r="F25" t="n">
-        <v>99.06870000000001</v>
+        <v>98.5855</v>
       </c>
       <c r="G25" t="n">
-        <v>96.6904</v>
+        <v>96.8946</v>
       </c>
       <c r="H25" t="n">
-        <v>99.55759999999999</v>
+        <v>98.80329999999999</v>
       </c>
       <c r="I25" t="n">
-        <v>99.9276</v>
+        <v>101.6176</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2016-01</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.61960000000001</v>
+        <v>98.7</v>
       </c>
       <c r="C26" t="n">
-        <v>96.69750000000001</v>
+        <v>95.8</v>
       </c>
       <c r="D26" t="n">
-        <v>90.0853</v>
+        <v>102.9</v>
       </c>
       <c r="E26" t="n">
-        <v>91.3813</v>
+        <v>104.3</v>
       </c>
       <c r="F26" t="n">
-        <v>99.2132</v>
+        <v>100.4</v>
       </c>
       <c r="G26" t="n">
-        <v>97.17310000000001</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="H26" t="n">
-        <v>100.4824</v>
+        <v>100.3</v>
       </c>
       <c r="I26" t="n">
-        <v>98.4297</v>
+        <v>91.3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2016-02</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>94.0089</v>
+        <v>100.9</v>
       </c>
       <c r="C27" t="n">
-        <v>95.63039999999999</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>91.6675</v>
+        <v>107.7</v>
       </c>
       <c r="E27" t="n">
-        <v>91.9415</v>
+        <v>108.3</v>
       </c>
       <c r="F27" t="n">
-        <v>99.0292</v>
+        <v>100.5</v>
       </c>
       <c r="G27" t="n">
-        <v>97.0843</v>
+        <v>100.8</v>
       </c>
       <c r="H27" t="n">
-        <v>100.6139</v>
+        <v>99.5</v>
       </c>
       <c r="I27" t="n">
-        <v>97.4015</v>
+        <v>93.09999999999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2016-03</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>94.62569999999999</v>
+        <v>103.1</v>
       </c>
       <c r="C28" t="n">
-        <v>95.5324</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>92.9973</v>
+        <v>112.7</v>
       </c>
       <c r="E28" t="n">
-        <v>92.5188</v>
+        <v>114.4</v>
       </c>
       <c r="F28" t="n">
-        <v>99.0254</v>
+        <v>100.7</v>
       </c>
       <c r="G28" t="n">
-        <v>97.206</v>
+        <v>101.6</v>
       </c>
       <c r="H28" t="n">
-        <v>100.5082</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="I28" t="n">
-        <v>96.2283</v>
+        <v>95.59999999999999</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2016-04</t>
+          <t>2016-01</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>95.32729999999999</v>
+        <v>93.61960000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>95.29470000000001</v>
+        <v>96.69750000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>93.399</v>
+        <v>90.0853</v>
       </c>
       <c r="E29" t="n">
-        <v>93.03489999999999</v>
+        <v>91.3813</v>
       </c>
       <c r="F29" t="n">
-        <v>99.2668</v>
+        <v>99.2132</v>
       </c>
       <c r="G29" t="n">
-        <v>97.3479</v>
+        <v>97.17310000000001</v>
       </c>
       <c r="H29" t="n">
-        <v>100.4936</v>
+        <v>100.4824</v>
       </c>
       <c r="I29" t="n">
-        <v>96.352</v>
+        <v>98.4297</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2016-05</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>95.8</v>
+        <v>94.0089</v>
       </c>
       <c r="C30" t="n">
-        <v>95</v>
+        <v>95.63039999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>92.09999999999999</v>
+        <v>91.6675</v>
       </c>
       <c r="E30" t="n">
-        <v>92.5</v>
+        <v>91.9415</v>
       </c>
       <c r="F30" t="n">
-        <v>99.3</v>
+        <v>99.0292</v>
       </c>
       <c r="G30" t="n">
-        <v>97.3</v>
+        <v>97.0843</v>
       </c>
       <c r="H30" t="n">
-        <v>100.2</v>
+        <v>100.6139</v>
       </c>
       <c r="I30" t="n">
-        <v>95.8</v>
+        <v>97.4015</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2016-06</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>96.7</v>
+        <v>94.62569999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>95.09999999999999</v>
+        <v>95.5324</v>
       </c>
       <c r="D31" t="n">
-        <v>92.09999999999999</v>
+        <v>92.9973</v>
       </c>
       <c r="E31" t="n">
-        <v>92.59999999999999</v>
+        <v>92.5188</v>
       </c>
       <c r="F31" t="n">
-        <v>99.40000000000001</v>
+        <v>99.0254</v>
       </c>
       <c r="G31" t="n">
-        <v>97.7</v>
+        <v>97.206</v>
       </c>
       <c r="H31" t="n">
-        <v>100.2</v>
+        <v>100.5082</v>
       </c>
       <c r="I31" t="n">
-        <v>93.90000000000001</v>
+        <v>96.2283</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2016-07</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>97.59999999999999</v>
+        <v>95.32729999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>95.2</v>
+        <v>95.29470000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>94.09999999999999</v>
+        <v>93.399</v>
       </c>
       <c r="E32" t="n">
-        <v>93.7</v>
+        <v>93.03489999999999</v>
       </c>
       <c r="F32" t="n">
-        <v>99.7</v>
+        <v>99.2668</v>
       </c>
       <c r="G32" t="n">
-        <v>97.7</v>
+        <v>97.3479</v>
       </c>
       <c r="H32" t="n">
-        <v>100.3</v>
+        <v>100.4936</v>
       </c>
       <c r="I32" t="n">
-        <v>92.2</v>
+        <v>96.352</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2016-08</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>97.8</v>
+        <v>95.8</v>
       </c>
       <c r="C33" t="n">
-        <v>95.40000000000001</v>
+        <v>95</v>
       </c>
       <c r="D33" t="n">
-        <v>97.2</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>97.2</v>
+        <v>92.5</v>
       </c>
       <c r="F33" t="n">
-        <v>99.8</v>
+        <v>99.3</v>
       </c>
       <c r="G33" t="n">
-        <v>98.3</v>
+        <v>97.3</v>
       </c>
       <c r="H33" t="n">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="I33" t="n">
-        <v>91</v>
+        <v>95.8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2016-09</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>98.3</v>
+        <v>96.7</v>
       </c>
       <c r="C34" t="n">
-        <v>95.59999999999999</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>100</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="E34" t="n">
-        <v>100.5</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="F34" t="n">
-        <v>100.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="G34" t="n">
-        <v>99</v>
+        <v>97.7</v>
       </c>
       <c r="H34" t="n">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="I34" t="n">
-        <v>90.7</v>
+        <v>93.90000000000001</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2016-10</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>98.7</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>95.8</v>
+        <v>95.2</v>
       </c>
       <c r="D35" t="n">
-        <v>102.9</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="E35" t="n">
-        <v>104.3</v>
+        <v>93.7</v>
       </c>
       <c r="F35" t="n">
-        <v>100.4</v>
+        <v>99.7</v>
       </c>
       <c r="G35" t="n">
-        <v>99.90000000000001</v>
+        <v>97.7</v>
       </c>
       <c r="H35" t="n">
         <v>100.3</v>
       </c>
       <c r="I35" t="n">
-        <v>91.3</v>
+        <v>92.2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2016-11</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>100.9</v>
+        <v>97.8</v>
       </c>
       <c r="C36" t="n">
-        <v>97.09999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>107.7</v>
+        <v>97.2</v>
       </c>
       <c r="E36" t="n">
-        <v>108.3</v>
+        <v>97.2</v>
       </c>
       <c r="F36" t="n">
-        <v>100.5</v>
+        <v>99.8</v>
       </c>
       <c r="G36" t="n">
-        <v>100.8</v>
+        <v>98.3</v>
       </c>
       <c r="H36" t="n">
-        <v>99.5</v>
+        <v>100.3</v>
       </c>
       <c r="I36" t="n">
-        <v>93.09999999999999</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2016-12</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>103.1</v>
+        <v>98.3</v>
       </c>
       <c r="C37" t="n">
-        <v>98.59999999999999</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>112.7</v>
+        <v>100</v>
       </c>
       <c r="E37" t="n">
-        <v>114.4</v>
+        <v>100.5</v>
       </c>
       <c r="F37" t="n">
-        <v>100.7</v>
+        <v>100.3</v>
       </c>
       <c r="G37" t="n">
-        <v>101.6</v>
+        <v>99</v>
       </c>
       <c r="H37" t="n">
-        <v>99.59999999999999</v>
+        <v>100.3</v>
       </c>
       <c r="I37" t="n">
-        <v>95.59999999999999</v>
+        <v>90.7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2017-01</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>104.1</v>
+        <v>106.7</v>
       </c>
       <c r="C38" t="n">
-        <v>99.7</v>
+        <v>111.1</v>
       </c>
       <c r="D38" t="n">
-        <v>116.9</v>
+        <v>115.3</v>
       </c>
       <c r="E38" t="n">
-        <v>118.5</v>
+        <v>115.9</v>
       </c>
       <c r="F38" t="n">
-        <v>101.4</v>
+        <v>102.8</v>
       </c>
       <c r="G38" t="n">
-        <v>102.7</v>
+        <v>105</v>
       </c>
       <c r="H38" t="n">
-        <v>99.5</v>
+        <v>101.7</v>
       </c>
       <c r="I38" t="n">
-        <v>99</v>
+        <v>107.5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2017-02</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>106</v>
+        <v>105.8</v>
       </c>
       <c r="C39" t="n">
-        <v>101.4</v>
+        <v>111.6</v>
       </c>
       <c r="D39" t="n">
-        <v>121.4</v>
+        <v>112.7</v>
       </c>
       <c r="E39" t="n">
-        <v>122.5</v>
+        <v>115.7</v>
       </c>
       <c r="F39" t="n">
-        <v>102.5</v>
+        <v>102.9</v>
       </c>
       <c r="G39" t="n">
-        <v>103.4</v>
+        <v>104.8</v>
       </c>
       <c r="H39" t="n">
-        <v>99.40000000000001</v>
+        <v>102.2</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3</v>
+        <v>107.8</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2017-03</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>106.7</v>
+        <v>105</v>
       </c>
       <c r="C40" t="n">
-        <v>101.9</v>
+        <v>112.8</v>
       </c>
       <c r="D40" t="n">
-        <v>118.7</v>
+        <v>110.7</v>
       </c>
       <c r="E40" t="n">
-        <v>120.7</v>
+        <v>113.5</v>
       </c>
       <c r="F40" t="n">
-        <v>102.8</v>
+        <v>103.1</v>
       </c>
       <c r="G40" t="n">
-        <v>104.2</v>
+        <v>104.5</v>
       </c>
       <c r="H40" t="n">
-        <v>99.7</v>
+        <v>102.4</v>
       </c>
       <c r="I40" t="n">
-        <v>102.8</v>
+        <v>107.8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2017-04</t>
+          <t>2017-01</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>105.4</v>
+        <v>104.1</v>
       </c>
       <c r="C41" t="n">
-        <v>103.2</v>
+        <v>99.7</v>
       </c>
       <c r="D41" t="n">
-        <v>113.4</v>
+        <v>116.9</v>
       </c>
       <c r="E41" t="n">
-        <v>116.4</v>
+        <v>118.5</v>
       </c>
       <c r="F41" t="n">
-        <v>103.1</v>
+        <v>101.4</v>
       </c>
       <c r="G41" t="n">
-        <v>104.4</v>
+        <v>102.7</v>
       </c>
       <c r="H41" t="n">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="I41" t="n">
-        <v>101.9</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2017-05</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>104.3</v>
+        <v>106</v>
       </c>
       <c r="C42" t="n">
-        <v>104.3</v>
+        <v>101.4</v>
       </c>
       <c r="D42" t="n">
-        <v>111</v>
+        <v>121.4</v>
       </c>
       <c r="E42" t="n">
-        <v>113.6</v>
+        <v>122.5</v>
       </c>
       <c r="F42" t="n">
-        <v>103</v>
+        <v>102.5</v>
       </c>
       <c r="G42" t="n">
-        <v>104.9</v>
+        <v>103.4</v>
       </c>
       <c r="H42" t="n">
-        <v>100.2</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="I42" t="n">
-        <v>101.6</v>
+        <v>101.3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2017-06</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>103.1</v>
+        <v>106.7</v>
       </c>
       <c r="C43" t="n">
-        <v>103.9</v>
+        <v>101.9</v>
       </c>
       <c r="D43" t="n">
-        <v>111.1</v>
+        <v>118.7</v>
       </c>
       <c r="E43" t="n">
-        <v>113.8</v>
+        <v>120.7</v>
       </c>
       <c r="F43" t="n">
         <v>102.8</v>
       </c>
       <c r="G43" t="n">
-        <v>104.8</v>
+        <v>104.2</v>
       </c>
       <c r="H43" t="n">
-        <v>100.5</v>
+        <v>99.7</v>
       </c>
       <c r="I43" t="n">
-        <v>102.6</v>
+        <v>102.8</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2017-07</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>102.6</v>
+        <v>105.4</v>
       </c>
       <c r="C44" t="n">
-        <v>104.6</v>
+        <v>103.2</v>
       </c>
       <c r="D44" t="n">
-        <v>111.3</v>
+        <v>113.4</v>
       </c>
       <c r="E44" t="n">
-        <v>113.5</v>
+        <v>116.4</v>
       </c>
       <c r="F44" t="n">
-        <v>102.9</v>
+        <v>103.1</v>
       </c>
       <c r="G44" t="n">
-        <v>105</v>
+        <v>104.4</v>
       </c>
       <c r="H44" t="n">
-        <v>100.6</v>
+        <v>100</v>
       </c>
       <c r="I44" t="n">
-        <v>104.1</v>
+        <v>101.9</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2017-08</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>103.4</v>
+        <v>104.3</v>
       </c>
       <c r="C45" t="n">
-        <v>105.7</v>
+        <v>104.3</v>
       </c>
       <c r="D45" t="n">
-        <v>112.4</v>
+        <v>111</v>
       </c>
       <c r="E45" t="n">
-        <v>114.3</v>
+        <v>113.6</v>
       </c>
       <c r="F45" t="n">
-        <v>102.8</v>
+        <v>103</v>
       </c>
       <c r="G45" t="n">
-        <v>105</v>
+        <v>104.9</v>
       </c>
       <c r="H45" t="n">
-        <v>100.6</v>
+        <v>100.2</v>
       </c>
       <c r="I45" t="n">
-        <v>105.2</v>
+        <v>101.6</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2017-09</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>104.5</v>
+        <v>103.1</v>
       </c>
       <c r="C46" t="n">
-        <v>107.9</v>
+        <v>103.9</v>
       </c>
       <c r="D46" t="n">
-        <v>115.2</v>
+        <v>111.1</v>
       </c>
       <c r="E46" t="n">
-        <v>116.2</v>
+        <v>113.8</v>
       </c>
       <c r="F46" t="n">
+        <v>102.8</v>
+      </c>
+      <c r="G46" t="n">
+        <v>104.8</v>
+      </c>
+      <c r="H46" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="I46" t="n">
         <v>102.6</v>
-      </c>
-      <c r="G46" t="n">
-        <v>105.4</v>
-      </c>
-      <c r="H46" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="I46" t="n">
-        <v>106.1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2017-10</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>106.7</v>
+        <v>102.6</v>
       </c>
       <c r="C47" t="n">
-        <v>111.1</v>
+        <v>104.6</v>
       </c>
       <c r="D47" t="n">
-        <v>115.3</v>
+        <v>111.3</v>
       </c>
       <c r="E47" t="n">
-        <v>115.9</v>
+        <v>113.5</v>
       </c>
       <c r="F47" t="n">
-        <v>102.8</v>
+        <v>102.9</v>
       </c>
       <c r="G47" t="n">
         <v>105</v>
       </c>
       <c r="H47" t="n">
-        <v>101.7</v>
+        <v>100.6</v>
       </c>
       <c r="I47" t="n">
-        <v>107.5</v>
+        <v>104.1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2017-11</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>105.8</v>
+        <v>103.4</v>
       </c>
       <c r="C48" t="n">
-        <v>111.6</v>
+        <v>105.7</v>
       </c>
       <c r="D48" t="n">
-        <v>112.7</v>
+        <v>112.4</v>
       </c>
       <c r="E48" t="n">
-        <v>115.7</v>
+        <v>114.3</v>
       </c>
       <c r="F48" t="n">
-        <v>102.9</v>
+        <v>102.8</v>
       </c>
       <c r="G48" t="n">
-        <v>104.8</v>
+        <v>105</v>
       </c>
       <c r="H48" t="n">
-        <v>102.2</v>
+        <v>100.6</v>
       </c>
       <c r="I48" t="n">
-        <v>107.8</v>
+        <v>105.2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2017-12</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>105</v>
+        <v>104.5</v>
       </c>
       <c r="C49" t="n">
-        <v>112.8</v>
+        <v>107.9</v>
       </c>
       <c r="D49" t="n">
-        <v>110.7</v>
+        <v>115.2</v>
       </c>
       <c r="E49" t="n">
-        <v>113.5</v>
+        <v>116.2</v>
       </c>
       <c r="F49" t="n">
-        <v>103.1</v>
+        <v>102.6</v>
       </c>
       <c r="G49" t="n">
-        <v>104.5</v>
+        <v>105.4</v>
       </c>
       <c r="H49" t="n">
-        <v>102.4</v>
+        <v>100.6</v>
       </c>
       <c r="I49" t="n">
-        <v>107.8</v>
+        <v>106.1</v>
       </c>
     </row>
   </sheetData>
